--- a/medicine/Psychotrope/Le_Bilboquet_(brasserie)/Le_Bilboquet_(brasserie).xlsx
+++ b/medicine/Psychotrope/Le_Bilboquet_(brasserie)/Le_Bilboquet_(brasserie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Bilboquet est un broue-pub québécois situé en plein cœur du centre-ville de Saint-Hyacinthe.
 Fondé en 1990, le Bilboquet se spécialise dans les produits brassicoles de dégustation et affiche une production annuelle de 800 hectolitres, en croissance constante. Un service de restauration est aussi assuré.
@@ -512,7 +524,9 @@
           <t>Les bières</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La Métayer blonde (5 %)
 La Métayer rousse (5 %)
